--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -766,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,18 +790,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,7 +1117,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1163,22 +1151,22 @@
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="12"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="9"/>
       <c r="R1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="12"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1200,22 +1188,22 @@
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="12"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="12"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1257,7 @@
       <c r="P3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="7" t="s">
@@ -1278,7 +1266,7 @@
       <c r="S3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="U3" s="8" t="s">
@@ -1298,37 +1286,37 @@
       <c r="E4" s="1">
         <v>60000070</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H4" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="3">
         <v>200000</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="3">
         <v>10000</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="3">
         <v>10000</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="3">
         <v>60000</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q4" s="4">
@@ -1340,7 +1328,6 @@
       <c r="S4" s="3">
         <v>40000101</v>
       </c>
-      <c r="T4" s="4"/>
       <c r="U4" s="1">
         <v>12</v>
       </c>
@@ -1358,37 +1345,37 @@
       <c r="E5" s="1">
         <v>60000070</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H5" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="3">
         <v>200000</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="3">
         <v>10000</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M5" s="3">
         <v>10000</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="3">
         <v>60000</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="4">
@@ -1400,7 +1387,6 @@
       <c r="S5" s="3">
         <v>40000101</v>
       </c>
-      <c r="T5" s="4"/>
       <c r="U5" s="1">
         <v>13</v>
       </c>
@@ -1418,37 +1404,37 @@
       <c r="E6" s="1">
         <v>60000070</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H6" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="3">
         <v>200000</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="3">
         <v>10000</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="3">
         <v>10000</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O6" s="3">
         <v>60000</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q6" s="4">
@@ -1460,7 +1446,6 @@
       <c r="S6" s="3">
         <v>40000101</v>
       </c>
-      <c r="T6" s="4"/>
       <c r="U6" s="1">
         <v>14</v>
       </c>
@@ -1478,37 +1463,37 @@
       <c r="E7" s="1">
         <v>60000070</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H7" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="3">
         <v>200000</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="3">
         <v>10000</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M7" s="3">
         <v>10000</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="3">
         <v>60000</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="4">
@@ -1537,37 +1522,37 @@
       <c r="E8" s="1">
         <v>60000070</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H8" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="3">
         <v>200000</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="3">
         <v>10000</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O8" s="3">
         <v>60000</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q8" s="4">
@@ -1596,37 +1581,37 @@
       <c r="E9" s="1">
         <v>60000070</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H9" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="3">
         <v>200000</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="3">
         <v>10000</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="3">
         <v>60000</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q9" s="4">
@@ -1652,37 +1637,37 @@
       <c r="E10" s="1">
         <v>60000070</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H10" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="3">
         <v>200000</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="3">
         <v>10000</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M10" s="3">
         <v>10000</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="3">
         <v>60000</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="4">
@@ -1708,37 +1693,37 @@
       <c r="E11" s="1">
         <v>60000070</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H11" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="3">
         <v>200000</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="3">
         <v>10000</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="3">
         <v>10000</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O11" s="3">
         <v>60000</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="4">
@@ -1764,37 +1749,37 @@
       <c r="E12" s="1">
         <v>60000070</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H12" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="3">
         <v>200000</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O12" s="3">
         <v>60000</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q12" s="4">
@@ -1820,37 +1805,37 @@
       <c r="E13" s="1">
         <v>60000070</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H13" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="3">
         <v>200000</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="3">
         <v>10000</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="3">
         <v>10000</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O13" s="3">
         <v>60000</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q13" s="4">
@@ -1876,37 +1861,37 @@
       <c r="E14" s="1">
         <v>60000070</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H14" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="3">
         <v>200000</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O14" s="3">
         <v>60000</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q14" s="4">
@@ -1932,37 +1917,37 @@
       <c r="E15" s="1">
         <v>60000070</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H15" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="3">
         <v>200000</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O15" s="3">
         <v>60000</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="4">
@@ -1988,37 +1973,37 @@
       <c r="E16" s="1">
         <v>60000070</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H16" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="3">
         <v>200000</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="3">
         <v>10000</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="3">
         <v>10000</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O16" s="3">
         <v>60000</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q16" s="4">
@@ -2044,37 +2029,37 @@
       <c r="E17" s="1">
         <v>60000070</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H17" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="3">
         <v>200000</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O17" s="3">
         <v>60000</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q17" s="4">
@@ -2100,37 +2085,37 @@
       <c r="E18" s="1">
         <v>60000070</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H18" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="3">
         <v>200000</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="3">
         <v>10000</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O18" s="3">
         <v>60000</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="4">
@@ -2156,37 +2141,37 @@
       <c r="E19" s="1">
         <v>60000070</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H19" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="3">
         <v>200000</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="3">
         <v>10000</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M19" s="3">
         <v>10000</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O19" s="3">
         <v>60000</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q19" s="4">
@@ -2209,37 +2194,37 @@
       <c r="E20" s="1">
         <v>60000070</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H20" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="3">
         <v>200000</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="3">
         <v>10000</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O20" s="3">
         <v>60000</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="4">
@@ -2262,37 +2247,37 @@
       <c r="E21" s="1">
         <v>60000070</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H21" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="3">
         <v>200000</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="3">
         <v>10000</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M21" s="3">
         <v>10000</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O21" s="3">
         <v>60000</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q21" s="4">
@@ -2315,37 +2300,37 @@
       <c r="E22" s="1">
         <v>60000070</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H22" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="3">
         <v>200000</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="3">
         <v>10000</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="3">
         <v>10000</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O22" s="3">
         <v>60000</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="4">
@@ -2368,37 +2353,37 @@
       <c r="E23" s="1">
         <v>60000070</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H23" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="3">
         <v>200000</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="3">
         <v>10000</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M23" s="3">
         <v>10000</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O23" s="3">
         <v>60000</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q23" s="4">
@@ -2418,37 +2403,37 @@
       <c r="E24" s="1">
         <v>60000070</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H24" s="11" t="s">
+        <v>20000</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="3">
         <v>200000</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O24" s="3">
         <v>60000</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q24" s="4">

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>array,int#ref=TbSkill</t>
   </si>
   <si>
-    <t>int#ref=TbRandomBag</t>
+    <t>int#ref=TbRandomBag?</t>
   </si>
   <si>
     <t>##</t>
@@ -1116,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -79,7 +79,7 @@
     <t>死亡掉落包</t>
   </si>
   <si>
-    <t>普通攻击植物</t>
+    <t>血厚怪</t>
   </si>
   <si>
     <t>生命值B</t>
@@ -100,16 +100,10 @@
     <t>攻速B</t>
   </si>
   <si>
-    <t>高级攻击植物</t>
-  </si>
-  <si>
-    <t>远程攻击植物</t>
-  </si>
-  <si>
-    <t>兵营攻击植物</t>
-  </si>
-  <si>
-    <t>中立怪</t>
+    <t>防高怪</t>
+  </si>
+  <si>
+    <t>速度怪</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1275,7 +1269,7 @@
     </row>
     <row r="4" spans="2:21">
       <c r="B4">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1284,13 +1278,13 @@
         <v>21</v>
       </c>
       <c r="E4" s="1">
-        <v>60000070</v>
+        <v>40010001</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="3">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
@@ -1314,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="O4" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>27</v>
@@ -1334,7 +1328,7 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1343,13 +1337,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="1">
-        <v>60000070</v>
+        <v>40010001</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
@@ -1373,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="O5" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>27</v>
@@ -1393,7 +1387,7 @@
     </row>
     <row r="6" spans="2:21">
       <c r="B6">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1402,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>60000070</v>
+        <v>40010001</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="3">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
@@ -1432,7 +1426,7 @@
         <v>26</v>
       </c>
       <c r="O6" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>27</v>
@@ -1452,16 +1446,16 @@
     </row>
     <row r="7" spans="2:21">
       <c r="B7">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
-        <v>60000070</v>
+        <v>40020001</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
@@ -1485,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="M7" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>27</v>
@@ -1506,21 +1500,21 @@
         <v>40000101</v>
       </c>
       <c r="U7" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:21">
       <c r="B8">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>60000070</v>
+        <v>40020001</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
@@ -1544,13 +1538,13 @@
         <v>25</v>
       </c>
       <c r="M8" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O8" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>27</v>
@@ -1565,21 +1559,21 @@
         <v>40000101</v>
       </c>
       <c r="U8" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:21">
       <c r="B9">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="1">
-        <v>60000070</v>
+        <v>40020001</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>22</v>
@@ -1603,13 +1597,13 @@
         <v>25</v>
       </c>
       <c r="M9" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>27</v>
@@ -1618,24 +1612,27 @@
         <v>5000</v>
       </c>
       <c r="R9" s="3">
-        <v>40010001</v>
+        <v>40000001</v>
+      </c>
+      <c r="S9" s="3">
+        <v>40000101</v>
       </c>
       <c r="U9" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
-        <v>60000070</v>
+        <v>40030001</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
@@ -1665,7 +1662,7 @@
         <v>26</v>
       </c>
       <c r="O10" s="3">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>27</v>
@@ -1674,24 +1671,27 @@
         <v>5000</v>
       </c>
       <c r="R10" s="3">
-        <v>40010001</v>
+        <v>40000001</v>
+      </c>
+      <c r="S10" s="3">
+        <v>40000101</v>
       </c>
       <c r="U10" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:21">
       <c r="B11">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
-        <v>60000070</v>
+        <v>40030001</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
@@ -1721,7 +1721,7 @@
         <v>26</v>
       </c>
       <c r="O11" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>27</v>
@@ -1730,24 +1730,27 @@
         <v>5000</v>
       </c>
       <c r="R11" s="3">
-        <v>40010001</v>
+        <v>40000001</v>
+      </c>
+      <c r="S11" s="3">
+        <v>40000101</v>
       </c>
       <c r="U11" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:21">
       <c r="B12">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
-        <v>60000070</v>
+        <v>40030001</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1786,664 +1789,13 @@
         <v>5000</v>
       </c>
       <c r="R12" s="3">
-        <v>40010001</v>
+        <v>40000001</v>
+      </c>
+      <c r="S12" s="3">
+        <v>40000101</v>
       </c>
       <c r="U12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13">
-        <v>4001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R13" s="3">
-        <v>40010001</v>
-      </c>
-      <c r="U13" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14">
-        <v>4002</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="U14" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15">
-        <v>4002</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="U15" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="B16">
-        <v>4002</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R16" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="U16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17">
-        <v>4002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="U17" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18">
-        <v>4002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="U18" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19">
-        <v>4100</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R19" s="3">
-        <v>41000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20">
-        <v>4100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>41000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21">
-        <v>4100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>41000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22">
-        <v>4100</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>41000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23">
-        <v>4100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>41000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24">
-        <v>4900</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" s="3">
-        <v>60000</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>49000001</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -43,6 +43,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>int#ref=TbResource</t>
+  </si>
+  <si>
     <t>map,NumericType,int</t>
   </si>
   <si>
@@ -77,6 +80,12 @@
   </si>
   <si>
     <t>死亡掉落包</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>血厚怪</t>
@@ -760,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,6 +791,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1119,7 +1134,7 @@
     <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
     <col min="3" max="3" width="5.57142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.0714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.1160714285714" style="2" customWidth="1"/>
     <col min="7" max="16" width="10.1160714285714" style="3" customWidth="1"/>
     <col min="17" max="17" width="10.1160714285714" style="4" customWidth="1"/>
@@ -1142,7 +1157,7 @@
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="7"/>
@@ -1155,13 +1170,13 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="11"/>
       <c r="R1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="7"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="8" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1177,10 +1192,10 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1192,185 +1207,153 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="11"/>
       <c r="R2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S2" s="7"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="8" t="s">
-        <v>11</v>
+      <c r="T2" s="11"/>
+      <c r="U2" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="O3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>18</v>
+      <c r="Q3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="T3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="2:21">
-      <c r="B4">
-        <v>4001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3">
-        <v>50000</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>5000</v>
-      </c>
-      <c r="R4" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S4" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="U4" s="1">
-        <v>12</v>
-      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>4001</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>40010001</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3">
         <v>200000</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3">
         <v>10000</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3">
         <v>10000</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O5" s="3">
         <v>20000</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="4">
         <v>5000</v>
@@ -1381,55 +1364,52 @@
       <c r="S5" s="3">
         <v>40000101</v>
       </c>
-      <c r="U5" s="1">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>4001</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>40010001</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3">
         <v>200000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K6" s="3">
         <v>10000</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M6" s="3">
         <v>10000</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O6" s="3">
         <v>20000</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="4">
         <v>5000</v>
@@ -1440,55 +1420,52 @@
       <c r="S6" s="3">
         <v>40000101</v>
       </c>
-      <c r="U6" s="1">
-        <v>14</v>
-      </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:19">
       <c r="B7">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3">
         <v>200000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3">
         <v>10000</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M7" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O7" s="3">
         <v>20000</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="4">
         <v>5000</v>
@@ -1499,55 +1476,52 @@
       <c r="S7" s="3">
         <v>40000101</v>
       </c>
-      <c r="U7" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>4002</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>40020001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3">
         <v>20000</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3">
         <v>200000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K8" s="3">
         <v>10000</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M8" s="3">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O8" s="3">
         <v>20000</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="4">
         <v>5000</v>
@@ -1558,55 +1532,52 @@
       <c r="S8" s="3">
         <v>40000101</v>
       </c>
-      <c r="U8" s="1">
-        <v>13</v>
-      </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>4002</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>40020001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3">
         <v>20000</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3">
         <v>200000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3">
         <v>10000</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M9" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O9" s="3">
         <v>20000</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="4">
         <v>5000</v>
@@ -1617,55 +1588,52 @@
       <c r="S9" s="3">
         <v>40000101</v>
       </c>
-      <c r="U9" s="1">
-        <v>14</v>
-      </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:19">
       <c r="B10">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
-        <v>40030001</v>
+        <v>40020001</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3">
         <v>20000</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3">
         <v>200000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K10" s="3">
         <v>10000</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M10" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="4">
         <v>5000</v>
@@ -1676,55 +1644,52 @@
       <c r="S10" s="3">
         <v>40000101</v>
       </c>
-      <c r="U10" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>4003</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1">
         <v>40030001</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3">
         <v>20000</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3">
         <v>200000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K11" s="3">
         <v>10000</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M11" s="3">
         <v>10000</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O11" s="3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="4">
         <v>5000</v>
@@ -1735,55 +1700,52 @@
       <c r="S11" s="3">
         <v>40000101</v>
       </c>
-      <c r="U11" s="1">
-        <v>13</v>
-      </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>4003</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>40030001</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3">
         <v>20000</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3">
         <v>200000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K12" s="3">
         <v>10000</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M12" s="3">
         <v>10000</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O12" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="4">
         <v>5000</v>
@@ -1794,8 +1756,61 @@
       <c r="S12" s="3">
         <v>40000101</v>
       </c>
-      <c r="U12" s="1">
-        <v>14</v>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13">
+        <v>4003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40030001</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="3">
+        <v>60000</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>5000</v>
+      </c>
+      <c r="R13" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="S13" s="3">
+        <v>40000101</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1356,7 +1356,7 @@
         <v>30</v>
       </c>
       <c r="Q5" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R5" s="3">
         <v>40000001</v>
@@ -1412,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="Q6" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R6" s="3">
         <v>40000001</v>
@@ -1468,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R7" s="3">
         <v>40000001</v>
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="Q8" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R8" s="3">
         <v>40000001</v>
@@ -1580,7 +1580,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R9" s="3">
         <v>40000001</v>
@@ -1636,7 +1636,7 @@
         <v>30</v>
       </c>
       <c r="Q10" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R10" s="3">
         <v>40000001</v>
@@ -1692,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="Q11" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R11" s="3">
         <v>40000001</v>
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="Q12" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R12" s="3">
         <v>40000001</v>
@@ -1804,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="R13" s="3">
         <v>40000001</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -1350,7 +1350,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>30</v>
@@ -1406,7 +1406,7 @@
         <v>29</v>
       </c>
       <c r="O6" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>30</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="O7" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>30</v>
@@ -1518,7 +1518,7 @@
         <v>29</v>
       </c>
       <c r="O8" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>30</v>
@@ -1574,7 +1574,7 @@
         <v>29</v>
       </c>
       <c r="O9" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>30</v>
@@ -1630,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="O10" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>30</v>
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="Q12" s="4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="R12" s="3">
         <v>40000001</v>
@@ -1798,13 +1798,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="R13" s="3">
         <v>40000001</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>等级</t>
   </si>
   <si>
     <t>备注</t>
@@ -1123,43 +1117,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="7" max="16" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="18" max="19" width="12.0446428571429" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="21" max="21" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="6" max="15" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="17" max="18" width="12.0446428571429" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="20" max="20" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -1169,34 +1160,31 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="7" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1206,93 +1194,89 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="7" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="7" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1302,523 +1286,495 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="7"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:18">
       <c r="B5">
-        <v>4001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>40011</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40010001</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6">
+        <v>40012</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
         <v>40010001</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R6" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7">
+        <v>40013</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40010001</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R7" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8">
+        <v>40021</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40020001</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R8" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9">
+        <v>40022</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40020001</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R9" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10">
+        <v>40023</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40020001</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3">
+        <v>40000</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R10" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11">
+        <v>40031</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40030001</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R11" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12">
+        <v>40032</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40030001</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="3">
         <v>50000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="O12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="R12" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13">
+        <v>40033</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40030001</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="L13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="N13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="P13" s="4">
+        <v>4000</v>
+      </c>
+      <c r="Q13" s="3">
         <v>40000001</v>
       </c>
-      <c r="S5" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6">
-        <v>4001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3">
-        <v>60000</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R6" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S6" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7">
-        <v>4001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3">
-        <v>70000</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R7" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S7" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8">
-        <v>4002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1">
-        <v>40020001</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="3">
-        <v>20000</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S8" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9">
-        <v>4002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1">
-        <v>40020001</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="3">
-        <v>30000</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S9" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10">
-        <v>4002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1">
-        <v>40020001</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="3">
-        <v>40000</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S10" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11">
-        <v>4003</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1">
-        <v>40030001</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="3">
-        <v>40000</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>2000</v>
-      </c>
-      <c r="R11" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S11" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12">
-        <v>4003</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
-        <v>40030001</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="3">
-        <v>50000</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>3000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S12" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13">
-        <v>4003</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1">
-        <v>40030001</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="3">
-        <v>50000</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>4000</v>
-      </c>
       <c r="R13" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="S13" s="3">
         <v>40000101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="F2:Q2"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="N5" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>28</v>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="N6" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>28</v>
@@ -1436,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>28</v>
@@ -1489,7 +1489,7 @@
         <v>27</v>
       </c>
       <c r="N8" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>28</v>
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="N9" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>28</v>
@@ -1595,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="N10" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>28</v>
@@ -1648,7 +1648,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="3">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>28</v>
@@ -1701,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="N12" s="3">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>28</v>
@@ -1754,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="N13" s="3">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>28</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>速度B</t>
+  </si>
+  <si>
+    <t>攻击距离B</t>
   </si>
   <si>
     <t>攻速B</t>
@@ -1117,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1129,14 +1132,14 @@
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="6" max="15" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="17" max="18" width="12.0446428571429" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="20" max="20" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="6" max="17" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="19" max="20" width="12.0446428571429" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="22" max="22" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1160,17 +1163,19 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1194,17 +1199,19 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1250,23 +1257,29 @@
       <c r="O3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1286,13 +1299,15 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="11"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="7"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:20">
       <c r="B5">
         <v>40011</v>
       </c>
@@ -1335,17 +1350,23 @@
       <c r="O5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="4">
         <v>2000</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="S5" s="3">
         <v>40000001</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:20">
       <c r="B6">
         <v>40012</v>
       </c>
@@ -1388,17 +1409,23 @@
       <c r="O6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="4">
         <v>2000</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="S6" s="3">
         <v>40000001</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:20">
       <c r="B7">
         <v>40013</v>
       </c>
@@ -1441,22 +1468,28 @@
       <c r="O7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="4">
         <v>2000</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="S7" s="3">
         <v>40000001</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:20">
       <c r="B8">
         <v>40021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>40020001</v>
@@ -1494,22 +1527,28 @@
       <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="4">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>40000001</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:20">
       <c r="B9">
         <v>40022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>40020001</v>
@@ -1547,22 +1586,28 @@
       <c r="O9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="4">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>40000001</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:20">
       <c r="B10">
         <v>40023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>40020001</v>
@@ -1600,22 +1645,28 @@
       <c r="O10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="4">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>40000001</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:20">
       <c r="B11">
         <v>40031</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>40030001</v>
@@ -1653,22 +1704,28 @@
       <c r="O11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="4">
         <v>2000</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="S11" s="3">
         <v>40000001</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:20">
       <c r="B12">
         <v>40032</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>40030001</v>
@@ -1706,22 +1763,28 @@
       <c r="O12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="4">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>40000001</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:20">
       <c r="B13">
         <v>40033</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>40030001</v>
@@ -1759,22 +1822,28 @@
       <c r="O13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="4">
         <v>4000</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="S13" s="3">
         <v>40000001</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
         <v>40000101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>radius</t>
+  </si>
+  <si>
     <t>props</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>模型</t>
+  </si>
+  <si>
+    <t>半径</t>
   </si>
   <si>
     <t>属性类型</t>
@@ -1120,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1131,15 +1137,16 @@
     <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="6" max="17" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="19" max="20" width="12.0446428571429" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="22" max="22" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="7" max="18" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="20" max="21" width="12.0446428571429" style="3" customWidth="1"/>
+    <col min="22" max="22" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="23" max="23" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1150,10 +1157,12 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -1165,31 +1174,34 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="7"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1201,95 +1213,99 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="10" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="S3" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="T3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1301,549 +1317,577 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="11"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:21">
       <c r="B5">
         <v>40011</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>40010001</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
         <v>50000</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
         <v>200000</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3">
         <v>10000</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3">
         <v>10000</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="3">
         <v>20000</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3">
         <v>15000</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="4">
         <v>2000</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>40000001</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:21">
       <c r="B6">
         <v>40012</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>40010001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3">
         <v>60000</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3">
         <v>200000</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3">
         <v>10000</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3">
         <v>10000</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="N6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="3">
         <v>20000</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="P6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
         <v>15000</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="4">
         <v>2000</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>40000001</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:21">
       <c r="B7">
         <v>40013</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>40010001</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3">
         <v>70000</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3">
         <v>200000</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3">
         <v>10000</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="3">
         <v>10000</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="3">
         <v>20000</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="P7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3">
         <v>15000</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="4">
         <v>2000</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>40000001</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:21">
       <c r="B8">
         <v>40021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>40020001</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3">
         <v>20000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3">
         <v>200000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3">
         <v>10000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="3">
         <v>20000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="3">
         <v>20000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="3">
         <v>15000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="4">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>40000001</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:21">
       <c r="B9">
         <v>40022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>40020001</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3">
         <v>20000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3">
         <v>200000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3">
         <v>30000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="3">
         <v>20000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="3">
         <v>15000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="4">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40000001</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:21">
       <c r="B10">
         <v>40023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>40020001</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3">
         <v>20000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3">
         <v>200000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="3">
         <v>10000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3">
         <v>40000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="3">
         <v>20000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="3">
         <v>15000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="4">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>40000001</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:21">
       <c r="B11">
         <v>40031</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>40030001</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3">
         <v>20000</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3">
         <v>200000</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3">
         <v>10000</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="L11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="3">
         <v>10000</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="N11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="3">
         <v>25000</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="P11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="3">
         <v>15000</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="4">
         <v>2000</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>40000001</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:21">
       <c r="B12">
         <v>40032</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>40030001</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3">
         <v>20000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3">
         <v>200000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="3">
         <v>25000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="3">
         <v>15000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="4">
         <v>3000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>40000001</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>40000101</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:21">
       <c r="B13">
         <v>40033</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>40030001</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3">
         <v>20000</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3">
         <v>200000</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3">
         <v>10000</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3">
         <v>10000</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="3">
+      <c r="N13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="3">
         <v>25000</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="P13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="3">
         <v>15000</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="4">
         <v>4000</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>40000001</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>40000101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="E2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="F1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1359,7 +1359,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>29</v>
@@ -1421,7 +1421,7 @@
         <v>28</v>
       </c>
       <c r="M6" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>29</v>
@@ -1483,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="M7" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>29</v>
@@ -1545,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="M8" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>29</v>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
       <c r="M9" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>29</v>
@@ -1669,7 +1669,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="3">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>29</v>
@@ -1731,7 +1731,7 @@
         <v>28</v>
       </c>
       <c r="M11" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>29</v>
@@ -1793,7 +1793,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>29</v>
@@ -1855,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="M13" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>29</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1365,7 +1365,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>30</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="O6" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>30</v>
@@ -1489,7 +1489,7 @@
         <v>29</v>
       </c>
       <c r="O7" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>30</v>
@@ -1551,7 +1551,7 @@
         <v>29</v>
       </c>
       <c r="O8" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>30</v>
@@ -1613,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="O9" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>30</v>
@@ -1675,7 +1675,7 @@
         <v>29</v>
       </c>
       <c r="O10" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>30</v>
@@ -1737,7 +1737,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>30</v>
@@ -1799,7 +1799,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>30</v>
@@ -1861,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>30</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -34,6 +34,9 @@
     <t>skills</t>
   </si>
   <si>
+    <t>ai_name</t>
+  </si>
+  <si>
     <t>random_bag_id</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>array,int#ref=TbSkill</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int#ref=TbRandomBag?</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>技能</t>
   </si>
   <si>
+    <t>AI名称</t>
+  </si>
+  <si>
     <t>死亡掉落包</t>
   </si>
   <si>
@@ -88,15 +97,18 @@
     <t>c</t>
   </si>
   <si>
+    <t>稻草人</t>
+  </si>
+  <si>
+    <t>生命值B</t>
+  </si>
+  <si>
+    <t>魔法值B</t>
+  </si>
+  <si>
     <t>血厚怪</t>
   </si>
   <si>
-    <t>生命值B</t>
-  </si>
-  <si>
-    <t>魔法值B</t>
-  </si>
-  <si>
     <t>攻击力B</t>
   </si>
   <si>
@@ -110,6 +122,9 @@
   </si>
   <si>
     <t>攻速B</t>
+  </si>
+  <si>
+    <t>AIAutoAttackCenter</t>
   </si>
   <si>
     <t>防高怪</t>
@@ -772,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,6 +820,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1143,10 +1161,11 @@
     <col min="19" max="19" width="10.1160714285714" style="4" customWidth="1"/>
     <col min="20" max="21" width="12.0446428571429" style="3" customWidth="1"/>
     <col min="22" max="22" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="23" max="23" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7142857142857" style="3" customWidth="1"/>
+    <col min="24" max="24" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1181,26 +1200,29 @@
       </c>
       <c r="U1" s="7"/>
       <c r="V1" s="11"/>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="X1" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1216,93 +1238,99 @@
       <c r="R2" s="7"/>
       <c r="S2" s="11"/>
       <c r="T2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="10" t="s">
-        <v>12</v>
+      <c r="W2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10"/>
@@ -1323,13 +1351,14 @@
       <c r="U4" s="7"/>
       <c r="V4" s="11"/>
       <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:9">
       <c r="B5">
-        <v>40011</v>
+        <v>40001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>40010001</v>
@@ -1338,60 +1367,24 @@
         <v>3000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3">
         <v>200000</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3">
-        <v>30000</v>
-      </c>
-      <c r="P5" s="3" t="s">
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6">
+        <v>40011</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>15000</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="T5" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U5" s="3">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="B6">
-        <v>40012</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>40010001</v>
@@ -1400,43 +1393,43 @@
         <v>3000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3">
         <v>200000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3">
         <v>10000</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O6" s="3">
         <v>30000</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="3">
         <v>15000</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S6" s="4">
         <v>2000</v>
@@ -1447,13 +1440,16 @@
       <c r="U6" s="3">
         <v>40000101</v>
       </c>
+      <c r="W6" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:23">
       <c r="B7">
-        <v>40013</v>
+        <v>40012</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>40010001</v>
@@ -1462,43 +1458,43 @@
         <v>3000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3">
         <v>200000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K7" s="3">
         <v>10000</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O7" s="3">
         <v>30000</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="3">
         <v>15000</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S7" s="4">
         <v>2000</v>
@@ -1509,58 +1505,61 @@
       <c r="U7" s="3">
         <v>40000101</v>
       </c>
+      <c r="W7" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:23">
       <c r="B8">
-        <v>40021</v>
+        <v>40013</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E8" s="1">
         <v>3000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3">
         <v>200000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K8" s="3">
         <v>10000</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O8" s="3">
         <v>30000</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="3">
         <v>15000</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S8" s="4">
         <v>2000</v>
@@ -1571,13 +1570,16 @@
       <c r="U8" s="3">
         <v>40000101</v>
       </c>
+      <c r="W8" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:23">
       <c r="B9">
-        <v>40022</v>
+        <v>40021</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>40020001</v>
@@ -1586,43 +1588,43 @@
         <v>3000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3">
         <v>20000</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3">
         <v>200000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K9" s="3">
         <v>10000</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O9" s="3">
         <v>30000</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="3">
         <v>15000</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S9" s="4">
         <v>2000</v>
@@ -1633,13 +1635,16 @@
       <c r="U9" s="3">
         <v>40000101</v>
       </c>
+      <c r="W9" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:23">
       <c r="B10">
-        <v>40023</v>
+        <v>40022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>40020001</v>
@@ -1648,43 +1653,43 @@
         <v>3000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3">
         <v>20000</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I10" s="3">
         <v>200000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K10" s="3">
         <v>10000</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O10" s="3">
         <v>30000</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="3">
         <v>15000</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S10" s="4">
         <v>2000</v>
@@ -1695,58 +1700,61 @@
       <c r="U10" s="3">
         <v>40000101</v>
       </c>
+      <c r="W10" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:23">
       <c r="B11">
-        <v>40031</v>
+        <v>40023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>40030001</v>
+        <v>40020001</v>
       </c>
       <c r="E11" s="1">
         <v>3000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3">
         <v>20000</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3">
         <v>200000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K11" s="3">
         <v>10000</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O11" s="3">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="3">
         <v>15000</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S11" s="4">
         <v>2000</v>
@@ -1757,13 +1765,16 @@
       <c r="U11" s="3">
         <v>40000101</v>
       </c>
+      <c r="W11" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:23">
       <c r="B12">
-        <v>40032</v>
+        <v>40031</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>40030001</v>
@@ -1772,46 +1783,46 @@
         <v>3000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" s="3">
         <v>20000</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3">
         <v>200000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K12" s="3">
         <v>10000</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O12" s="3">
         <v>35000</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="3">
         <v>15000</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S12" s="4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T12" s="3">
         <v>40000001</v>
@@ -1819,13 +1830,16 @@
       <c r="U12" s="3">
         <v>40000101</v>
       </c>
+      <c r="W12" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:23">
       <c r="B13">
-        <v>40033</v>
+        <v>40032</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>40030001</v>
@@ -1834,52 +1848,120 @@
         <v>3000</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3">
         <v>20000</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I13" s="3">
         <v>200000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K13" s="3">
         <v>10000</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O13" s="3">
         <v>35000</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="3">
         <v>15000</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S13" s="4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" s="3">
         <v>40000001</v>
       </c>
       <c r="U13" s="3">
         <v>40000101</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14">
+        <v>40033</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40030001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="3">
+        <v>35000</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="4">
+        <v>4000</v>
+      </c>
+      <c r="T14" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="U14" s="3">
+        <v>40000101</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -106,22 +106,28 @@
     <t>魔法值B</t>
   </si>
   <si>
+    <t>稻草人2</t>
+  </si>
+  <si>
+    <t>攻击力B</t>
+  </si>
+  <si>
+    <t>防御力B</t>
+  </si>
+  <si>
+    <t>速度B</t>
+  </si>
+  <si>
+    <t>攻击距离B</t>
+  </si>
+  <si>
+    <t>攻速B</t>
+  </si>
+  <si>
+    <t>AIAutoAttack</t>
+  </si>
+  <si>
     <t>血厚怪</t>
-  </si>
-  <si>
-    <t>攻击力B</t>
-  </si>
-  <si>
-    <t>防御力B</t>
-  </si>
-  <si>
-    <t>速度B</t>
-  </si>
-  <si>
-    <t>攻击距离B</t>
-  </si>
-  <si>
-    <t>攻速B</t>
   </si>
   <si>
     <t>AIAutoAttackCenter</t>
@@ -1144,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1381,7 +1387,7 @@
     </row>
     <row r="6" spans="2:23">
       <c r="B6">
-        <v>40011</v>
+        <v>40002</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -1396,7 +1402,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="3">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>29</v>
@@ -1446,10 +1452,10 @@
     </row>
     <row r="7" spans="2:23">
       <c r="B7">
-        <v>40012</v>
+        <v>40011</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>40010001</v>
@@ -1461,7 +1467,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>29</v>
@@ -1506,15 +1512,15 @@
         <v>40000101</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:23">
       <c r="B8">
-        <v>40013</v>
+        <v>40012</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>40010001</v>
@@ -1526,7 +1532,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="3">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>29</v>
@@ -1571,18 +1577,18 @@
         <v>40000101</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:23">
       <c r="B9">
-        <v>40021</v>
+        <v>40013</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="E9" s="1">
         <v>3000</v>
@@ -1591,7 +1597,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="3">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>29</v>
@@ -1636,15 +1642,15 @@
         <v>40000101</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:23">
       <c r="B10">
-        <v>40022</v>
+        <v>40021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>40020001</v>
@@ -1701,15 +1707,15 @@
         <v>40000101</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:23">
       <c r="B11">
-        <v>40023</v>
+        <v>40022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>40020001</v>
@@ -1766,18 +1772,18 @@
         <v>40000101</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:23">
       <c r="B12">
-        <v>40031</v>
+        <v>40023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>40030001</v>
+        <v>40020001</v>
       </c>
       <c r="E12" s="1">
         <v>3000</v>
@@ -1810,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="O12" s="3">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>34</v>
@@ -1831,15 +1837,15 @@
         <v>40000101</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:23">
       <c r="B13">
-        <v>40032</v>
+        <v>40031</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <v>40030001</v>
@@ -1887,7 +1893,7 @@
         <v>35</v>
       </c>
       <c r="S13" s="4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T13" s="3">
         <v>40000001</v>
@@ -1896,15 +1902,15 @@
         <v>40000101</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:23">
       <c r="B14">
-        <v>40033</v>
+        <v>40032</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>40030001</v>
@@ -1952,7 +1958,7 @@
         <v>35</v>
       </c>
       <c r="S14" s="4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T14" s="3">
         <v>40000001</v>
@@ -1961,7 +1967,72 @@
         <v>40000101</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15">
+        <v>40033</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40030001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="4">
+        <v>4000</v>
+      </c>
+      <c r="T15" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="U15" s="3">
+        <v>40000101</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Soldier.xlsx
@@ -130,7 +130,7 @@
     <t>血厚怪</t>
   </si>
   <si>
-    <t>AIAutoAttackCenter</t>
+    <t>AIMoveToCenter</t>
   </si>
   <si>
     <t>防高怪</t>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1443,9 +1443,6 @@
       <c r="T6" s="3">
         <v>40000001</v>
       </c>
-      <c r="U6" s="3">
-        <v>40000101</v>
-      </c>
       <c r="W6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1506,9 +1503,6 @@
         <v>2000</v>
       </c>
       <c r="T7" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U7" s="3">
         <v>40000101</v>
       </c>
       <c r="W7" s="3" t="s">
@@ -1571,9 +1565,6 @@
         <v>2000</v>
       </c>
       <c r="T8" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U8" s="3">
         <v>40000101</v>
       </c>
       <c r="W8" s="3" t="s">
@@ -1636,9 +1627,6 @@
         <v>2000</v>
       </c>
       <c r="T9" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U9" s="3">
         <v>40000101</v>
       </c>
       <c r="W9" s="3" t="s">
@@ -1701,9 +1689,6 @@
         <v>2000</v>
       </c>
       <c r="T10" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U10" s="3">
         <v>40000101</v>
       </c>
       <c r="W10" s="3" t="s">
@@ -1766,9 +1751,6 @@
         <v>2000</v>
       </c>
       <c r="T11" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U11" s="3">
         <v>40000101</v>
       </c>
       <c r="W11" s="3" t="s">
@@ -1831,9 +1813,6 @@
         <v>2000</v>
       </c>
       <c r="T12" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U12" s="3">
         <v>40000101</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1896,9 +1875,6 @@
         <v>2000</v>
       </c>
       <c r="T13" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U13" s="3">
         <v>40000101</v>
       </c>
       <c r="W13" s="3" t="s">
@@ -1961,9 +1937,6 @@
         <v>3000</v>
       </c>
       <c r="T14" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U14" s="3">
         <v>40000101</v>
       </c>
       <c r="W14" s="3" t="s">
@@ -2026,9 +1999,6 @@
         <v>4000</v>
       </c>
       <c r="T15" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="U15" s="3">
         <v>40000101</v>
       </c>
       <c r="W15" s="3" t="s">
